--- a/Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292714A1-5B82-4134-989B-7B4BCBE75D3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HCMLY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>HCMLY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27057100</v>
+        <v>27590100</v>
       </c>
       <c r="E8" s="3">
-        <v>27859600</v>
+        <v>27143100</v>
       </c>
       <c r="F8" s="3">
-        <v>24421700</v>
+        <v>27025600</v>
       </c>
       <c r="G8" s="3">
-        <v>19493700</v>
+        <v>23690600</v>
       </c>
       <c r="H8" s="3">
-        <v>20419400</v>
+        <v>18910100</v>
       </c>
       <c r="I8" s="3">
-        <v>21911600</v>
+        <v>19808100</v>
       </c>
       <c r="J8" s="3">
+        <v>21255600</v>
+      </c>
+      <c r="K8" s="3">
         <v>21480800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18999700</v>
+        <v>15883500</v>
       </c>
       <c r="E9" s="3">
-        <v>32374500</v>
+        <v>37580100</v>
       </c>
       <c r="F9" s="3">
-        <v>17075700</v>
+        <v>31405300</v>
       </c>
       <c r="G9" s="3">
-        <v>21754200</v>
+        <v>16564500</v>
       </c>
       <c r="H9" s="3">
-        <v>11480800</v>
+        <v>21103000</v>
       </c>
       <c r="I9" s="3">
-        <v>17990100</v>
+        <v>11137100</v>
       </c>
       <c r="J9" s="3">
+        <v>17451500</v>
+      </c>
+      <c r="K9" s="3">
         <v>12649900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8057400</v>
+        <v>11706700</v>
       </c>
       <c r="E10" s="3">
-        <v>-4514900</v>
+        <v>-10437000</v>
       </c>
       <c r="F10" s="3">
-        <v>7346000</v>
+        <v>-4379700</v>
       </c>
       <c r="G10" s="3">
-        <v>-2260500</v>
+        <v>7126100</v>
       </c>
       <c r="H10" s="3">
-        <v>8938600</v>
+        <v>-2192900</v>
       </c>
       <c r="I10" s="3">
-        <v>3921500</v>
+        <v>8671000</v>
       </c>
       <c r="J10" s="3">
+        <v>3804100</v>
+      </c>
+      <c r="K10" s="3">
         <v>8830900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +848,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +875,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,36 +905,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-126300</v>
+        <v>571600</v>
       </c>
       <c r="E14" s="3">
-        <v>-721800</v>
+        <v>-103500</v>
       </c>
       <c r="F14" s="3">
-        <v>-1101800</v>
+        <v>-700200</v>
       </c>
       <c r="G14" s="3">
-        <v>-182300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>-1068800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-176800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>4100</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -894,21 +953,24 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>254700</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>247100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>316900</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +979,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27425700</v>
+        <v>24358600</v>
       </c>
       <c r="E17" s="3">
-        <v>24069600</v>
+        <v>27500700</v>
       </c>
       <c r="F17" s="3">
-        <v>24085200</v>
+        <v>23349100</v>
       </c>
       <c r="G17" s="3">
-        <v>16988700</v>
+        <v>23364100</v>
       </c>
       <c r="H17" s="3">
-        <v>17978700</v>
+        <v>16480200</v>
       </c>
       <c r="I17" s="3">
-        <v>20100500</v>
+        <v>17440500</v>
       </c>
       <c r="J17" s="3">
+        <v>19498700</v>
+      </c>
+      <c r="K17" s="3">
         <v>19483300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-368600</v>
+        <v>3231500</v>
       </c>
       <c r="E18" s="3">
-        <v>3790000</v>
+        <v>-357600</v>
       </c>
       <c r="F18" s="3">
-        <v>336500</v>
+        <v>3676500</v>
       </c>
       <c r="G18" s="3">
-        <v>2504900</v>
+        <v>326500</v>
       </c>
       <c r="H18" s="3">
-        <v>2440700</v>
+        <v>2429900</v>
       </c>
       <c r="I18" s="3">
-        <v>1811100</v>
+        <v>2367700</v>
       </c>
       <c r="J18" s="3">
+        <v>1756900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1997500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1053,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-88000</v>
+        <v>-122600</v>
       </c>
       <c r="E20" s="3">
-        <v>87000</v>
+        <v>-85400</v>
       </c>
       <c r="F20" s="3">
+        <v>84400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-183800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>265200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>350600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>438000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-189500</v>
       </c>
-      <c r="G20" s="3">
-        <v>273400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>361400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>450500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-189500</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5967800</v>
+        <v>5364400</v>
       </c>
       <c r="E21" s="3">
-        <v>6312200</v>
+        <v>5788300</v>
       </c>
       <c r="F21" s="3">
-        <v>4730300</v>
+        <v>6122900</v>
       </c>
       <c r="G21" s="3">
-        <v>4231800</v>
+        <v>4588100</v>
       </c>
       <c r="H21" s="3">
-        <v>4396600</v>
+        <v>4104900</v>
       </c>
       <c r="I21" s="3">
-        <v>4480100</v>
+        <v>4264700</v>
       </c>
       <c r="J21" s="3">
+        <v>4346700</v>
+      </c>
+      <c r="K21" s="3">
         <v>3907300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>765200</v>
+        <v>723300</v>
       </c>
       <c r="E22" s="3">
-        <v>892600</v>
+        <v>742300</v>
       </c>
       <c r="F22" s="3">
-        <v>855300</v>
+        <v>865900</v>
       </c>
       <c r="G22" s="3">
-        <v>499100</v>
+        <v>829700</v>
       </c>
       <c r="H22" s="3">
-        <v>598500</v>
+        <v>484200</v>
       </c>
       <c r="I22" s="3">
-        <v>654400</v>
+        <v>580600</v>
       </c>
       <c r="J22" s="3">
+        <v>635900</v>
+      </c>
+      <c r="K22" s="3">
         <v>636800</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1221900</v>
+        <v>2385700</v>
       </c>
       <c r="E23" s="3">
-        <v>2984400</v>
+        <v>-1185300</v>
       </c>
       <c r="F23" s="3">
-        <v>-708300</v>
+        <v>2895000</v>
       </c>
       <c r="G23" s="3">
-        <v>2279200</v>
+        <v>-687100</v>
       </c>
       <c r="H23" s="3">
-        <v>2203600</v>
+        <v>2210900</v>
       </c>
       <c r="I23" s="3">
-        <v>1607100</v>
+        <v>2137600</v>
       </c>
       <c r="J23" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1171200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>555000</v>
+        <v>659000</v>
       </c>
       <c r="E24" s="3">
-        <v>864700</v>
+        <v>538400</v>
       </c>
       <c r="F24" s="3">
-        <v>808700</v>
+        <v>838800</v>
       </c>
       <c r="G24" s="3">
-        <v>601600</v>
+        <v>784500</v>
       </c>
       <c r="H24" s="3">
-        <v>550900</v>
+        <v>583600</v>
       </c>
       <c r="I24" s="3">
-        <v>569500</v>
+        <v>534400</v>
       </c>
       <c r="J24" s="3">
+        <v>552500</v>
+      </c>
+      <c r="K24" s="3">
         <v>464900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1230,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1777000</v>
+        <v>1726800</v>
       </c>
       <c r="E26" s="3">
-        <v>2119700</v>
+        <v>-1723800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1517000</v>
+        <v>2056300</v>
       </c>
       <c r="G26" s="3">
-        <v>1677500</v>
+        <v>-1471600</v>
       </c>
       <c r="H26" s="3">
-        <v>1652700</v>
+        <v>1627300</v>
       </c>
       <c r="I26" s="3">
-        <v>1037600</v>
+        <v>1603200</v>
       </c>
       <c r="J26" s="3">
+        <v>1006500</v>
+      </c>
+      <c r="K26" s="3">
         <v>706200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1734500</v>
+        <v>1508800</v>
       </c>
       <c r="E27" s="3">
-        <v>1810100</v>
+        <v>-1682600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1627800</v>
+        <v>1755900</v>
       </c>
       <c r="G27" s="3">
-        <v>1331700</v>
+        <v>-1579100</v>
       </c>
       <c r="H27" s="3">
-        <v>1317200</v>
+        <v>1291800</v>
       </c>
       <c r="I27" s="3">
-        <v>631700</v>
+        <v>1277700</v>
       </c>
       <c r="J27" s="3">
+        <v>612800</v>
+      </c>
+      <c r="K27" s="3">
         <v>284800</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,26 +1320,29 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>44500</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>106700</v>
+        <v>43200</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>103500</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1350,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1380,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1410,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>88000</v>
+        <v>122600</v>
       </c>
       <c r="E32" s="3">
-        <v>-87000</v>
+        <v>85400</v>
       </c>
       <c r="F32" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>183800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-265200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-350600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="K32" s="3">
         <v>189500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-273400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-361400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-450500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>189500</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1734500</v>
+        <v>1508800</v>
       </c>
       <c r="E33" s="3">
-        <v>1854600</v>
+        <v>-1682600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1521200</v>
+        <v>1799100</v>
       </c>
       <c r="G33" s="3">
-        <v>1331700</v>
+        <v>-1475600</v>
       </c>
       <c r="H33" s="3">
-        <v>1317200</v>
+        <v>1291800</v>
       </c>
       <c r="I33" s="3">
-        <v>631700</v>
+        <v>1277700</v>
       </c>
       <c r="J33" s="3">
+        <v>612800</v>
+      </c>
+      <c r="K33" s="3">
         <v>284800</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1500,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1734500</v>
+        <v>1508800</v>
       </c>
       <c r="E35" s="3">
-        <v>1854600</v>
+        <v>-1682600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1521200</v>
+        <v>1799100</v>
       </c>
       <c r="G35" s="3">
-        <v>1331700</v>
+        <v>-1475600</v>
       </c>
       <c r="H35" s="3">
-        <v>1317200</v>
+        <v>1291800</v>
       </c>
       <c r="I35" s="3">
-        <v>631700</v>
+        <v>1277700</v>
       </c>
       <c r="J35" s="3">
+        <v>612800</v>
+      </c>
+      <c r="K35" s="3">
         <v>284800</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1582,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1596,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2536000</v>
+        <v>1533900</v>
       </c>
       <c r="E41" s="3">
-        <v>8386700</v>
+        <v>2460100</v>
       </c>
       <c r="F41" s="3">
-        <v>3308500</v>
+        <v>8135600</v>
       </c>
       <c r="G41" s="3">
-        <v>3038200</v>
+        <v>3209400</v>
       </c>
       <c r="H41" s="3">
-        <v>636800</v>
+        <v>2947300</v>
       </c>
       <c r="I41" s="3">
-        <v>1830800</v>
+        <v>617800</v>
       </c>
       <c r="J41" s="3">
+        <v>1776000</v>
+      </c>
+      <c r="K41" s="3">
         <v>773500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1831800</v>
+        <v>995500</v>
       </c>
       <c r="E42" s="3">
-        <v>1809100</v>
+        <v>1777000</v>
       </c>
       <c r="F42" s="3">
-        <v>1240600</v>
+        <v>1754900</v>
       </c>
       <c r="G42" s="3">
-        <v>1410400</v>
+        <v>1203400</v>
       </c>
       <c r="H42" s="3">
-        <v>1686900</v>
+        <v>1368200</v>
       </c>
       <c r="I42" s="3">
-        <v>2320600</v>
+        <v>1636400</v>
       </c>
       <c r="J42" s="3">
+        <v>2251100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2281300</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4471400</v>
+        <v>4131600</v>
       </c>
       <c r="E43" s="3">
-        <v>7210300</v>
+        <v>4337500</v>
       </c>
       <c r="F43" s="3">
-        <v>4372000</v>
+        <v>6994500</v>
       </c>
       <c r="G43" s="3">
-        <v>5484100</v>
+        <v>4241100</v>
       </c>
       <c r="H43" s="3">
-        <v>2693400</v>
+        <v>5319900</v>
       </c>
       <c r="I43" s="3">
-        <v>8634200</v>
+        <v>2612800</v>
       </c>
       <c r="J43" s="3">
+        <v>8375700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2904600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2971900</v>
+        <v>3094900</v>
       </c>
       <c r="E44" s="3">
-        <v>5477900</v>
+        <v>2883000</v>
       </c>
       <c r="F44" s="3">
-        <v>3168700</v>
+        <v>5313900</v>
       </c>
       <c r="G44" s="3">
-        <v>3823100</v>
+        <v>3073800</v>
       </c>
       <c r="H44" s="3">
-        <v>1764500</v>
+        <v>3708700</v>
       </c>
       <c r="I44" s="3">
-        <v>6292900</v>
+        <v>1711700</v>
       </c>
       <c r="J44" s="3">
+        <v>6104500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2160100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1255100</v>
+        <v>1954800</v>
       </c>
       <c r="E45" s="3">
-        <v>5258400</v>
+        <v>1217500</v>
       </c>
       <c r="F45" s="3">
-        <v>1714800</v>
+        <v>5101000</v>
       </c>
       <c r="G45" s="3">
-        <v>963000</v>
+        <v>1663500</v>
       </c>
       <c r="H45" s="3">
-        <v>1078000</v>
+        <v>934200</v>
       </c>
       <c r="I45" s="3">
-        <v>3194600</v>
+        <v>1045700</v>
       </c>
       <c r="J45" s="3">
+        <v>3098900</v>
+      </c>
+      <c r="K45" s="3">
         <v>324100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13066200</v>
+        <v>11710700</v>
       </c>
       <c r="E46" s="3">
-        <v>14947700</v>
+        <v>12675000</v>
       </c>
       <c r="F46" s="3">
-        <v>13804500</v>
+        <v>14500200</v>
       </c>
       <c r="G46" s="3">
-        <v>7487800</v>
+        <v>13391300</v>
       </c>
       <c r="H46" s="3">
-        <v>7859600</v>
+        <v>7263700</v>
       </c>
       <c r="I46" s="3">
-        <v>8568900</v>
+        <v>7624300</v>
       </c>
       <c r="J46" s="3">
+        <v>8312400</v>
+      </c>
+      <c r="K46" s="3">
         <v>8443600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3766200</v>
+        <v>3659500</v>
       </c>
       <c r="E47" s="3">
-        <v>5522400</v>
+        <v>3653400</v>
       </c>
       <c r="F47" s="3">
-        <v>4029200</v>
+        <v>5357100</v>
       </c>
       <c r="G47" s="3">
-        <v>2540100</v>
+        <v>3908600</v>
       </c>
       <c r="H47" s="3">
-        <v>2163200</v>
+        <v>2464100</v>
       </c>
       <c r="I47" s="3">
-        <v>4049900</v>
+        <v>2098400</v>
       </c>
       <c r="J47" s="3">
+        <v>3928700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2152800</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31223000</v>
+        <v>28016100</v>
       </c>
       <c r="E48" s="3">
-        <v>66381000</v>
+        <v>30288300</v>
       </c>
       <c r="F48" s="3">
-        <v>38052300</v>
+        <v>64393800</v>
       </c>
       <c r="G48" s="3">
-        <v>44650600</v>
+        <v>36913100</v>
       </c>
       <c r="H48" s="3">
-        <v>20740400</v>
+        <v>43313900</v>
       </c>
       <c r="I48" s="3">
-        <v>25715100</v>
+        <v>20119500</v>
       </c>
       <c r="J48" s="3">
+        <v>24945200</v>
+      </c>
+      <c r="K48" s="3">
         <v>23747600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16148900</v>
+        <v>14922100</v>
       </c>
       <c r="E49" s="3">
-        <v>35756500</v>
+        <v>15665500</v>
       </c>
       <c r="F49" s="3">
-        <v>18542000</v>
+        <v>34684100</v>
       </c>
       <c r="G49" s="3">
-        <v>16012200</v>
+        <v>17986900</v>
       </c>
       <c r="H49" s="3">
-        <v>7751900</v>
+        <v>15532900</v>
       </c>
       <c r="I49" s="3">
-        <v>25392000</v>
+        <v>7519800</v>
       </c>
       <c r="J49" s="3">
+        <v>24631800</v>
+      </c>
+      <c r="K49" s="3">
         <v>8753300</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1893,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1923,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1736600</v>
+        <v>1656500</v>
       </c>
       <c r="E52" s="3">
-        <v>2664400</v>
+        <v>1684600</v>
       </c>
       <c r="F52" s="3">
-        <v>1473500</v>
+        <v>2584600</v>
       </c>
       <c r="G52" s="3">
-        <v>1024100</v>
+        <v>1429400</v>
       </c>
       <c r="H52" s="3">
-        <v>776600</v>
+        <v>993500</v>
       </c>
       <c r="I52" s="3">
-        <v>2382700</v>
+        <v>753400</v>
       </c>
       <c r="J52" s="3">
+        <v>2311400</v>
+      </c>
+      <c r="K52" s="3">
         <v>968200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1983,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65940900</v>
+        <v>59964800</v>
       </c>
       <c r="E54" s="3">
-        <v>72090800</v>
+        <v>63966800</v>
       </c>
       <c r="F54" s="3">
-        <v>75901500</v>
+        <v>69931700</v>
       </c>
       <c r="G54" s="3">
-        <v>40892700</v>
+        <v>73629300</v>
       </c>
       <c r="H54" s="3">
-        <v>39291800</v>
+        <v>39668500</v>
       </c>
       <c r="I54" s="3">
-        <v>42661400</v>
+        <v>38115500</v>
       </c>
       <c r="J54" s="3">
+        <v>41384200</v>
+      </c>
+      <c r="K54" s="3">
         <v>44065500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2030,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2044,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3847000</v>
+        <v>3787000</v>
       </c>
       <c r="E57" s="3">
-        <v>3424500</v>
+        <v>3731800</v>
       </c>
       <c r="F57" s="3">
-        <v>3824200</v>
+        <v>3321900</v>
       </c>
       <c r="G57" s="3">
-        <v>2199400</v>
+        <v>3709700</v>
       </c>
       <c r="H57" s="3">
-        <v>2002700</v>
+        <v>2133600</v>
       </c>
       <c r="I57" s="3">
-        <v>2222200</v>
+        <v>1942700</v>
       </c>
       <c r="J57" s="3">
+        <v>2155700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2481100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3866600</v>
+        <v>2989500</v>
       </c>
       <c r="E58" s="3">
-        <v>12358900</v>
+        <v>3750900</v>
       </c>
       <c r="F58" s="3">
-        <v>7065400</v>
+        <v>11988900</v>
       </c>
       <c r="G58" s="3">
-        <v>5142400</v>
+        <v>6853800</v>
       </c>
       <c r="H58" s="3">
-        <v>3141800</v>
+        <v>4988400</v>
       </c>
       <c r="I58" s="3">
-        <v>5822700</v>
+        <v>3047700</v>
       </c>
       <c r="J58" s="3">
+        <v>5648400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2912900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4214600</v>
+        <v>3999000</v>
       </c>
       <c r="E59" s="3">
-        <v>4407200</v>
+        <v>4088400</v>
       </c>
       <c r="F59" s="3">
-        <v>4469300</v>
+        <v>4275200</v>
       </c>
       <c r="G59" s="3">
-        <v>2507000</v>
+        <v>4335500</v>
       </c>
       <c r="H59" s="3">
-        <v>2581600</v>
+        <v>2431900</v>
       </c>
       <c r="I59" s="3">
-        <v>5453000</v>
+        <v>2504300</v>
       </c>
       <c r="J59" s="3">
+        <v>5289800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2574300</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11928200</v>
+        <v>10775500</v>
       </c>
       <c r="E60" s="3">
-        <v>12953300</v>
+        <v>11571100</v>
       </c>
       <c r="F60" s="3">
-        <v>15358800</v>
+        <v>12565500</v>
       </c>
       <c r="G60" s="3">
-        <v>7090200</v>
+        <v>14899000</v>
       </c>
       <c r="H60" s="3">
-        <v>7726000</v>
+        <v>6877900</v>
       </c>
       <c r="I60" s="3">
-        <v>8593800</v>
+        <v>7494700</v>
       </c>
       <c r="J60" s="3">
+        <v>8336500</v>
+      </c>
+      <c r="K60" s="3">
         <v>7968300</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15290500</v>
+        <v>13070800</v>
       </c>
       <c r="E61" s="3">
-        <v>15185900</v>
+        <v>14832700</v>
       </c>
       <c r="F61" s="3">
-        <v>15386800</v>
+        <v>14731300</v>
       </c>
       <c r="G61" s="3">
-        <v>9523700</v>
+        <v>14926200</v>
       </c>
       <c r="H61" s="3">
-        <v>9097000</v>
+        <v>9238600</v>
       </c>
       <c r="I61" s="3">
-        <v>10201900</v>
+        <v>8824700</v>
       </c>
       <c r="J61" s="3">
+        <v>9896500</v>
+      </c>
+      <c r="K61" s="3">
         <v>11932300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6647000</v>
+        <v>5929700</v>
       </c>
       <c r="E62" s="3">
-        <v>10196800</v>
+        <v>6448000</v>
       </c>
       <c r="F62" s="3">
-        <v>8165100</v>
+        <v>9891500</v>
       </c>
       <c r="G62" s="3">
-        <v>4570800</v>
+        <v>7920600</v>
       </c>
       <c r="H62" s="3">
-        <v>3129300</v>
+        <v>4434000</v>
       </c>
       <c r="I62" s="3">
-        <v>7351200</v>
+        <v>3035700</v>
       </c>
       <c r="J62" s="3">
+        <v>7131100</v>
+      </c>
+      <c r="K62" s="3">
         <v>3809700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2251,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2281,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2311,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37166900</v>
+        <v>32918100</v>
       </c>
       <c r="E66" s="3">
-        <v>40173000</v>
+        <v>36054200</v>
       </c>
       <c r="F66" s="3">
-        <v>43422500</v>
+        <v>38970400</v>
       </c>
       <c r="G66" s="3">
-        <v>22843600</v>
+        <v>42122500</v>
       </c>
       <c r="H66" s="3">
-        <v>22511200</v>
+        <v>22159700</v>
       </c>
       <c r="I66" s="3">
-        <v>25640500</v>
+        <v>21837300</v>
       </c>
       <c r="J66" s="3">
+        <v>24872900</v>
+      </c>
+      <c r="K66" s="3">
         <v>26637700</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2358,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2385,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2415,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2445,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2475,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15924200</v>
+        <v>17262700</v>
       </c>
       <c r="E72" s="3">
-        <v>17133700</v>
+        <v>15447500</v>
       </c>
       <c r="F72" s="3">
-        <v>15520400</v>
+        <v>16620800</v>
       </c>
       <c r="G72" s="3">
-        <v>28497500</v>
+        <v>15055700</v>
       </c>
       <c r="H72" s="3">
-        <v>17908300</v>
+        <v>27644400</v>
       </c>
       <c r="I72" s="3">
-        <v>16368500</v>
+        <v>17372200</v>
       </c>
       <c r="J72" s="3">
+        <v>15878400</v>
+      </c>
+      <c r="K72" s="3">
         <v>16345700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2535,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2565,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2595,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28774000</v>
+        <v>27046700</v>
       </c>
       <c r="E76" s="3">
-        <v>31916800</v>
+        <v>27912600</v>
       </c>
       <c r="F76" s="3">
-        <v>32479100</v>
+        <v>30961300</v>
       </c>
       <c r="G76" s="3">
-        <v>18049100</v>
+        <v>31506800</v>
       </c>
       <c r="H76" s="3">
-        <v>16780600</v>
+        <v>17508800</v>
       </c>
       <c r="I76" s="3">
-        <v>17020800</v>
+        <v>16278200</v>
       </c>
       <c r="J76" s="3">
+        <v>16511300</v>
+      </c>
+      <c r="K76" s="3">
         <v>17427800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2655,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1734500</v>
+        <v>1508800</v>
       </c>
       <c r="E81" s="3">
-        <v>1854600</v>
+        <v>-1682600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1521200</v>
+        <v>1799100</v>
       </c>
       <c r="G81" s="3">
-        <v>1331700</v>
+        <v>-1475600</v>
       </c>
       <c r="H81" s="3">
-        <v>1317200</v>
+        <v>1291800</v>
       </c>
       <c r="I81" s="3">
-        <v>631700</v>
+        <v>1277700</v>
       </c>
       <c r="J81" s="3">
+        <v>612800</v>
+      </c>
+      <c r="K81" s="3">
         <v>284800</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2737,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6417100</v>
+        <v>2253100</v>
       </c>
       <c r="E83" s="3">
-        <v>2432400</v>
+        <v>6225000</v>
       </c>
       <c r="F83" s="3">
-        <v>4578000</v>
+        <v>2359600</v>
       </c>
       <c r="G83" s="3">
-        <v>1451800</v>
+        <v>4441000</v>
       </c>
       <c r="H83" s="3">
-        <v>1592600</v>
+        <v>1408300</v>
       </c>
       <c r="I83" s="3">
-        <v>2216000</v>
+        <v>1545000</v>
       </c>
       <c r="J83" s="3">
+        <v>2149700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2096900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2794,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2824,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2854,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2884,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2914,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3148000</v>
+        <v>3001500</v>
       </c>
       <c r="E89" s="3">
-        <v>3412000</v>
+        <v>3053700</v>
       </c>
       <c r="F89" s="3">
-        <v>2552600</v>
+        <v>3309900</v>
       </c>
       <c r="G89" s="3">
-        <v>2572200</v>
+        <v>2476100</v>
       </c>
       <c r="H89" s="3">
-        <v>2886000</v>
+        <v>2495200</v>
       </c>
       <c r="I89" s="3">
-        <v>2736900</v>
+        <v>2799600</v>
       </c>
       <c r="J89" s="3">
+        <v>2654900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2850800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2961,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1576100</v>
+        <v>-1417400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1836000</v>
+        <v>-1528900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2180800</v>
+        <v>-1781000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2014100</v>
+        <v>-2115500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2283300</v>
+        <v>-1953800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3768300</v>
+        <v>-2215000</v>
       </c>
       <c r="J91" s="3">
+        <v>-3466600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1839100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3018,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3048,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-699000</v>
+        <v>-1392300</v>
       </c>
       <c r="E94" s="3">
-        <v>731100</v>
+        <v>-678100</v>
       </c>
       <c r="F94" s="3">
-        <v>5419900</v>
+        <v>709200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1762500</v>
+        <v>5257700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1724100</v>
+        <v>-1709700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1239500</v>
+        <v>-1672500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1202400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1854600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3095,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1255100</v>
+        <v>-1197400</v>
       </c>
       <c r="E96" s="3">
-        <v>-941300</v>
+        <v>-1217500</v>
       </c>
       <c r="F96" s="3">
-        <v>-439100</v>
+        <v>-913100</v>
       </c>
       <c r="G96" s="3">
-        <v>-439100</v>
+        <v>-425900</v>
       </c>
       <c r="H96" s="3">
-        <v>-387300</v>
+        <v>-425900</v>
       </c>
       <c r="I96" s="3">
-        <v>-563300</v>
+        <v>-375700</v>
       </c>
       <c r="J96" s="3">
+        <v>-546500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-497000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3152,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3182,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3212,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3192500</v>
+        <v>-3177300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2981300</v>
+        <v>-3096900</v>
       </c>
       <c r="F100" s="3">
-        <v>-6213100</v>
+        <v>-2892000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1017900</v>
+        <v>-6027100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1682700</v>
+        <v>-987400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1167000</v>
+        <v>-1632300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1132100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1414500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-126300</v>
+        <v>-129600</v>
       </c>
       <c r="E101" s="3">
-        <v>-102500</v>
+        <v>-122600</v>
       </c>
       <c r="F101" s="3">
-        <v>135700</v>
+        <v>-99400</v>
       </c>
       <c r="G101" s="3">
-        <v>155300</v>
+        <v>131600</v>
       </c>
       <c r="H101" s="3">
-        <v>-222600</v>
+        <v>150700</v>
       </c>
       <c r="I101" s="3">
-        <v>-80800</v>
+        <v>-216000</v>
       </c>
       <c r="J101" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-174000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-869800</v>
+        <v>-1697600</v>
       </c>
       <c r="E102" s="3">
-        <v>1059300</v>
+        <v>-843800</v>
       </c>
       <c r="F102" s="3">
-        <v>1895000</v>
+        <v>1027600</v>
       </c>
       <c r="G102" s="3">
-        <v>-52800</v>
+        <v>1838300</v>
       </c>
       <c r="H102" s="3">
-        <v>-743500</v>
+        <v>-51200</v>
       </c>
       <c r="I102" s="3">
-        <v>249600</v>
+        <v>-721200</v>
       </c>
       <c r="J102" s="3">
+        <v>242100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-592300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292714A1-5B82-4134-989B-7B4BCBE75D3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="HCMLY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,34 +654,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -746,97 +711,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27590100</v>
+        <v>28187500</v>
       </c>
       <c r="E8" s="3">
-        <v>27143100</v>
+        <v>27730800</v>
       </c>
       <c r="F8" s="3">
-        <v>27025600</v>
+        <v>27610800</v>
       </c>
       <c r="G8" s="3">
-        <v>23690600</v>
+        <v>24203600</v>
       </c>
       <c r="H8" s="3">
-        <v>18910100</v>
+        <v>19319500</v>
       </c>
       <c r="I8" s="3">
-        <v>19808100</v>
+        <v>20237000</v>
       </c>
       <c r="J8" s="3">
-        <v>21255600</v>
+        <v>21715900</v>
       </c>
       <c r="K8" s="3">
         <v>21480800</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15883500</v>
+        <v>16227400</v>
       </c>
       <c r="E9" s="3">
-        <v>37580100</v>
+        <v>38393800</v>
       </c>
       <c r="F9" s="3">
-        <v>31405300</v>
+        <v>32085300</v>
       </c>
       <c r="G9" s="3">
-        <v>16564500</v>
+        <v>16923200</v>
       </c>
       <c r="H9" s="3">
-        <v>21103000</v>
+        <v>21559900</v>
       </c>
       <c r="I9" s="3">
-        <v>11137100</v>
+        <v>11378300</v>
       </c>
       <c r="J9" s="3">
-        <v>17451500</v>
+        <v>17829400</v>
       </c>
       <c r="K9" s="3">
         <v>12649900</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11706700</v>
+        <v>11960200</v>
       </c>
       <c r="E10" s="3">
-        <v>-10437000</v>
+        <v>-10662900</v>
       </c>
       <c r="F10" s="3">
-        <v>-4379700</v>
+        <v>-4474500</v>
       </c>
       <c r="G10" s="3">
-        <v>7126100</v>
+        <v>7280400</v>
       </c>
       <c r="H10" s="3">
-        <v>-2192900</v>
+        <v>-2240300</v>
       </c>
       <c r="I10" s="3">
-        <v>8671000</v>
+        <v>8858800</v>
       </c>
       <c r="J10" s="3">
-        <v>3804100</v>
+        <v>3886500</v>
       </c>
       <c r="K10" s="3">
         <v>8830900</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,7 +815,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,7 +845,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,24 +875,24 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>571600</v>
+        <v>583900</v>
       </c>
       <c r="E14" s="3">
-        <v>-103500</v>
+        <v>-105700</v>
       </c>
       <c r="F14" s="3">
-        <v>-700200</v>
+        <v>-715300</v>
       </c>
       <c r="G14" s="3">
-        <v>-1068800</v>
+        <v>-1092000</v>
       </c>
       <c r="H14" s="3">
-        <v>-176800</v>
+        <v>-180600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -940,7 +905,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>247100</v>
+        <v>252500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -970,7 +935,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -981,67 +946,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24358600</v>
+        <v>24886000</v>
       </c>
       <c r="E17" s="3">
-        <v>27500700</v>
+        <v>28096200</v>
       </c>
       <c r="F17" s="3">
-        <v>23349100</v>
+        <v>23854600</v>
       </c>
       <c r="G17" s="3">
-        <v>23364100</v>
+        <v>23870000</v>
       </c>
       <c r="H17" s="3">
-        <v>16480200</v>
+        <v>16837000</v>
       </c>
       <c r="I17" s="3">
-        <v>17440500</v>
+        <v>17818100</v>
       </c>
       <c r="J17" s="3">
-        <v>19498700</v>
+        <v>19920900</v>
       </c>
       <c r="K17" s="3">
         <v>19483300</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3231500</v>
+        <v>3301500</v>
       </c>
       <c r="E18" s="3">
-        <v>-357600</v>
+        <v>-365400</v>
       </c>
       <c r="F18" s="3">
-        <v>3676500</v>
+        <v>3756100</v>
       </c>
       <c r="G18" s="3">
-        <v>326500</v>
+        <v>333500</v>
       </c>
       <c r="H18" s="3">
-        <v>2429900</v>
+        <v>2482500</v>
       </c>
       <c r="I18" s="3">
-        <v>2367700</v>
+        <v>2418900</v>
       </c>
       <c r="J18" s="3">
-        <v>1756900</v>
+        <v>1794900</v>
       </c>
       <c r="K18" s="3">
         <v>1997500</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1055,157 +1020,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-122600</v>
+        <v>-125200</v>
       </c>
       <c r="E20" s="3">
-        <v>-85400</v>
+        <v>-87200</v>
       </c>
       <c r="F20" s="3">
-        <v>84400</v>
+        <v>86200</v>
       </c>
       <c r="G20" s="3">
-        <v>-183800</v>
+        <v>-187800</v>
       </c>
       <c r="H20" s="3">
-        <v>265200</v>
+        <v>270900</v>
       </c>
       <c r="I20" s="3">
-        <v>350600</v>
+        <v>358200</v>
       </c>
       <c r="J20" s="3">
-        <v>438000</v>
+        <v>447500</v>
       </c>
       <c r="K20" s="3">
         <v>-189500</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5364400</v>
+        <v>5481100</v>
       </c>
       <c r="E21" s="3">
-        <v>5788300</v>
+        <v>5915100</v>
       </c>
       <c r="F21" s="3">
-        <v>6122900</v>
+        <v>6256000</v>
       </c>
       <c r="G21" s="3">
-        <v>4588100</v>
+        <v>4688500</v>
       </c>
       <c r="H21" s="3">
-        <v>4104900</v>
+        <v>4194100</v>
       </c>
       <c r="I21" s="3">
-        <v>4264700</v>
+        <v>4357400</v>
       </c>
       <c r="J21" s="3">
-        <v>4346700</v>
+        <v>4441300</v>
       </c>
       <c r="K21" s="3">
         <v>3907300</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>723300</v>
+        <v>738900</v>
       </c>
       <c r="E22" s="3">
-        <v>742300</v>
+        <v>758400</v>
       </c>
       <c r="F22" s="3">
-        <v>865900</v>
+        <v>884600</v>
       </c>
       <c r="G22" s="3">
-        <v>829700</v>
+        <v>847700</v>
       </c>
       <c r="H22" s="3">
-        <v>484200</v>
+        <v>494700</v>
       </c>
       <c r="I22" s="3">
-        <v>580600</v>
+        <v>593200</v>
       </c>
       <c r="J22" s="3">
-        <v>635900</v>
+        <v>649600</v>
       </c>
       <c r="K22" s="3">
         <v>636800</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2385700</v>
+        <v>2437400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1185300</v>
+        <v>-1211000</v>
       </c>
       <c r="F23" s="3">
-        <v>2895000</v>
+        <v>2957700</v>
       </c>
       <c r="G23" s="3">
-        <v>-687100</v>
+        <v>-702000</v>
       </c>
       <c r="H23" s="3">
-        <v>2210900</v>
+        <v>2258800</v>
       </c>
       <c r="I23" s="3">
-        <v>2137600</v>
+        <v>2183900</v>
       </c>
       <c r="J23" s="3">
-        <v>1559000</v>
+        <v>1592800</v>
       </c>
       <c r="K23" s="3">
         <v>1171200</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>659000</v>
+        <v>673200</v>
       </c>
       <c r="E24" s="3">
-        <v>538400</v>
+        <v>550100</v>
       </c>
       <c r="F24" s="3">
-        <v>838800</v>
+        <v>856900</v>
       </c>
       <c r="G24" s="3">
-        <v>784500</v>
+        <v>801500</v>
       </c>
       <c r="H24" s="3">
-        <v>583600</v>
+        <v>596300</v>
       </c>
       <c r="I24" s="3">
-        <v>534400</v>
+        <v>546000</v>
       </c>
       <c r="J24" s="3">
-        <v>552500</v>
+        <v>564400</v>
       </c>
       <c r="K24" s="3">
         <v>464900</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,67 +1200,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1726800</v>
+        <v>1764200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1723800</v>
+        <v>-1761100</v>
       </c>
       <c r="F26" s="3">
-        <v>2056300</v>
+        <v>2100800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1471600</v>
+        <v>-1503500</v>
       </c>
       <c r="H26" s="3">
-        <v>1627300</v>
+        <v>1662600</v>
       </c>
       <c r="I26" s="3">
-        <v>1603200</v>
+        <v>1637900</v>
       </c>
       <c r="J26" s="3">
-        <v>1006500</v>
+        <v>1028300</v>
       </c>
       <c r="K26" s="3">
         <v>706200</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1508800</v>
+        <v>1541500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1682600</v>
+        <v>-1719000</v>
       </c>
       <c r="F27" s="3">
-        <v>1755900</v>
+        <v>1793900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1579100</v>
+        <v>-1613300</v>
       </c>
       <c r="H27" s="3">
-        <v>1291800</v>
+        <v>1319800</v>
       </c>
       <c r="I27" s="3">
-        <v>1277700</v>
+        <v>1305400</v>
       </c>
       <c r="J27" s="3">
-        <v>612800</v>
+        <v>626000</v>
       </c>
       <c r="K27" s="3">
         <v>284800</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,7 +1290,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1336,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>43200</v>
+        <v>44100</v>
       </c>
       <c r="G29" s="3">
-        <v>103500</v>
+        <v>105700</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1355,7 +1320,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1350,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1415,67 +1380,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>122600</v>
+        <v>125200</v>
       </c>
       <c r="E32" s="3">
-        <v>85400</v>
+        <v>87200</v>
       </c>
       <c r="F32" s="3">
-        <v>-84400</v>
+        <v>-86200</v>
       </c>
       <c r="G32" s="3">
-        <v>183800</v>
+        <v>187800</v>
       </c>
       <c r="H32" s="3">
-        <v>-265200</v>
+        <v>-270900</v>
       </c>
       <c r="I32" s="3">
-        <v>-350600</v>
+        <v>-358200</v>
       </c>
       <c r="J32" s="3">
-        <v>-438000</v>
+        <v>-447500</v>
       </c>
       <c r="K32" s="3">
         <v>189500</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1508800</v>
+        <v>1541500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1682600</v>
+        <v>-1719000</v>
       </c>
       <c r="F33" s="3">
-        <v>1799100</v>
+        <v>1838000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1475600</v>
+        <v>-1507600</v>
       </c>
       <c r="H33" s="3">
-        <v>1291800</v>
+        <v>1319800</v>
       </c>
       <c r="I33" s="3">
-        <v>1277700</v>
+        <v>1305400</v>
       </c>
       <c r="J33" s="3">
-        <v>612800</v>
+        <v>626000</v>
       </c>
       <c r="K33" s="3">
         <v>284800</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1505,42 +1470,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1508800</v>
+        <v>1541500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1682600</v>
+        <v>-1719000</v>
       </c>
       <c r="F35" s="3">
-        <v>1799100</v>
+        <v>1838000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1475600</v>
+        <v>-1507600</v>
       </c>
       <c r="H35" s="3">
-        <v>1291800</v>
+        <v>1319800</v>
       </c>
       <c r="I35" s="3">
-        <v>1277700</v>
+        <v>1305400</v>
       </c>
       <c r="J35" s="3">
-        <v>612800</v>
+        <v>626000</v>
       </c>
       <c r="K35" s="3">
         <v>284800</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1535,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1549,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1598,277 +1563,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1533900</v>
+        <v>1567100</v>
       </c>
       <c r="E41" s="3">
-        <v>2460100</v>
+        <v>2513300</v>
       </c>
       <c r="F41" s="3">
-        <v>8135600</v>
+        <v>8311800</v>
       </c>
       <c r="G41" s="3">
-        <v>3209400</v>
+        <v>3278900</v>
       </c>
       <c r="H41" s="3">
-        <v>2947300</v>
+        <v>3011100</v>
       </c>
       <c r="I41" s="3">
-        <v>617800</v>
+        <v>631200</v>
       </c>
       <c r="J41" s="3">
-        <v>1776000</v>
+        <v>1814400</v>
       </c>
       <c r="K41" s="3">
         <v>773500</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>995500</v>
+        <v>1017000</v>
       </c>
       <c r="E42" s="3">
-        <v>1777000</v>
+        <v>1815500</v>
       </c>
       <c r="F42" s="3">
-        <v>1754900</v>
+        <v>1792900</v>
       </c>
       <c r="G42" s="3">
-        <v>1203400</v>
+        <v>1229500</v>
       </c>
       <c r="H42" s="3">
-        <v>1368200</v>
+        <v>1397800</v>
       </c>
       <c r="I42" s="3">
-        <v>1636400</v>
+        <v>1671800</v>
       </c>
       <c r="J42" s="3">
-        <v>2251100</v>
+        <v>2299900</v>
       </c>
       <c r="K42" s="3">
         <v>2281300</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4131600</v>
+        <v>4221000</v>
       </c>
       <c r="E43" s="3">
-        <v>4337500</v>
+        <v>4431400</v>
       </c>
       <c r="F43" s="3">
-        <v>6994500</v>
+        <v>7145900</v>
       </c>
       <c r="G43" s="3">
-        <v>4241100</v>
+        <v>4332900</v>
       </c>
       <c r="H43" s="3">
-        <v>5319900</v>
+        <v>5435100</v>
       </c>
       <c r="I43" s="3">
-        <v>2612800</v>
+        <v>2669300</v>
       </c>
       <c r="J43" s="3">
-        <v>8375700</v>
+        <v>8557000</v>
       </c>
       <c r="K43" s="3">
         <v>2904600</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3094900</v>
+        <v>3161900</v>
       </c>
       <c r="E44" s="3">
-        <v>2883000</v>
+        <v>2945400</v>
       </c>
       <c r="F44" s="3">
-        <v>5313900</v>
+        <v>5429000</v>
       </c>
       <c r="G44" s="3">
-        <v>3073800</v>
+        <v>3140400</v>
       </c>
       <c r="H44" s="3">
-        <v>3708700</v>
+        <v>3789000</v>
       </c>
       <c r="I44" s="3">
-        <v>1711700</v>
+        <v>1748800</v>
       </c>
       <c r="J44" s="3">
-        <v>6104500</v>
+        <v>6236600</v>
       </c>
       <c r="K44" s="3">
         <v>2160100</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1954800</v>
+        <v>1997100</v>
       </c>
       <c r="E45" s="3">
-        <v>1217500</v>
+        <v>1243800</v>
       </c>
       <c r="F45" s="3">
-        <v>5101000</v>
+        <v>5211400</v>
       </c>
       <c r="G45" s="3">
-        <v>1663500</v>
+        <v>1699500</v>
       </c>
       <c r="H45" s="3">
-        <v>934200</v>
+        <v>954400</v>
       </c>
       <c r="I45" s="3">
-        <v>1045700</v>
+        <v>1068300</v>
       </c>
       <c r="J45" s="3">
-        <v>3098900</v>
+        <v>3166000</v>
       </c>
       <c r="K45" s="3">
         <v>324100</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11710700</v>
+        <v>11964300</v>
       </c>
       <c r="E46" s="3">
-        <v>12675000</v>
+        <v>12949500</v>
       </c>
       <c r="F46" s="3">
-        <v>14500200</v>
+        <v>14814200</v>
       </c>
       <c r="G46" s="3">
-        <v>13391300</v>
+        <v>13681200</v>
       </c>
       <c r="H46" s="3">
-        <v>7263700</v>
+        <v>7421000</v>
       </c>
       <c r="I46" s="3">
-        <v>7624300</v>
+        <v>7789400</v>
       </c>
       <c r="J46" s="3">
-        <v>8312400</v>
+        <v>8492400</v>
       </c>
       <c r="K46" s="3">
         <v>8443600</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3659500</v>
+        <v>3738700</v>
       </c>
       <c r="E47" s="3">
-        <v>3653400</v>
+        <v>3732500</v>
       </c>
       <c r="F47" s="3">
-        <v>5357100</v>
+        <v>5473100</v>
       </c>
       <c r="G47" s="3">
-        <v>3908600</v>
+        <v>3993200</v>
       </c>
       <c r="H47" s="3">
-        <v>2464100</v>
+        <v>2517400</v>
       </c>
       <c r="I47" s="3">
-        <v>2098400</v>
+        <v>2143900</v>
       </c>
       <c r="J47" s="3">
-        <v>3928700</v>
+        <v>4013700</v>
       </c>
       <c r="K47" s="3">
         <v>2152800</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28016100</v>
+        <v>28622700</v>
       </c>
       <c r="E48" s="3">
-        <v>30288300</v>
+        <v>30944100</v>
       </c>
       <c r="F48" s="3">
-        <v>64393800</v>
+        <v>65788000</v>
       </c>
       <c r="G48" s="3">
-        <v>36913100</v>
+        <v>37712300</v>
       </c>
       <c r="H48" s="3">
-        <v>43313900</v>
+        <v>44251700</v>
       </c>
       <c r="I48" s="3">
-        <v>20119500</v>
+        <v>20555200</v>
       </c>
       <c r="J48" s="3">
-        <v>24945200</v>
+        <v>25485400</v>
       </c>
       <c r="K48" s="3">
         <v>23747600</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14922100</v>
+        <v>15245200</v>
       </c>
       <c r="E49" s="3">
-        <v>15665500</v>
+        <v>16004700</v>
       </c>
       <c r="F49" s="3">
-        <v>34684100</v>
+        <v>35435100</v>
       </c>
       <c r="G49" s="3">
-        <v>17986900</v>
+        <v>18376400</v>
       </c>
       <c r="H49" s="3">
-        <v>15532900</v>
+        <v>15869200</v>
       </c>
       <c r="I49" s="3">
-        <v>7519800</v>
+        <v>7682700</v>
       </c>
       <c r="J49" s="3">
-        <v>24631800</v>
+        <v>25165200</v>
       </c>
       <c r="K49" s="3">
         <v>8753300</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1863,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1928,37 +1893,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1656500</v>
+        <v>1692300</v>
       </c>
       <c r="E52" s="3">
-        <v>1684600</v>
+        <v>1721100</v>
       </c>
       <c r="F52" s="3">
-        <v>2584600</v>
+        <v>2640600</v>
       </c>
       <c r="G52" s="3">
-        <v>1429400</v>
+        <v>1460400</v>
       </c>
       <c r="H52" s="3">
-        <v>993500</v>
+        <v>1015000</v>
       </c>
       <c r="I52" s="3">
-        <v>753400</v>
+        <v>769700</v>
       </c>
       <c r="J52" s="3">
-        <v>2311400</v>
+        <v>2361400</v>
       </c>
       <c r="K52" s="3">
         <v>968200</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1988,37 +1953,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59964800</v>
+        <v>61263200</v>
       </c>
       <c r="E54" s="3">
-        <v>63966800</v>
+        <v>65351800</v>
       </c>
       <c r="F54" s="3">
-        <v>69931700</v>
+        <v>71445800</v>
       </c>
       <c r="G54" s="3">
-        <v>73629300</v>
+        <v>75223500</v>
       </c>
       <c r="H54" s="3">
-        <v>39668500</v>
+        <v>40527400</v>
       </c>
       <c r="I54" s="3">
-        <v>38115500</v>
+        <v>38940800</v>
       </c>
       <c r="J54" s="3">
-        <v>41384200</v>
+        <v>42280300</v>
       </c>
       <c r="K54" s="3">
         <v>44065500</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2032,7 +1997,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2046,187 +2011,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3787000</v>
+        <v>3869000</v>
       </c>
       <c r="E57" s="3">
-        <v>3731800</v>
+        <v>3812600</v>
       </c>
       <c r="F57" s="3">
-        <v>3321900</v>
+        <v>3393900</v>
       </c>
       <c r="G57" s="3">
-        <v>3709700</v>
+        <v>3790000</v>
       </c>
       <c r="H57" s="3">
-        <v>2133600</v>
+        <v>2179800</v>
       </c>
       <c r="I57" s="3">
-        <v>1942700</v>
+        <v>1984800</v>
       </c>
       <c r="J57" s="3">
-        <v>2155700</v>
+        <v>2202400</v>
       </c>
       <c r="K57" s="3">
         <v>2481100</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2989500</v>
+        <v>3054200</v>
       </c>
       <c r="E58" s="3">
-        <v>3750900</v>
+        <v>3832100</v>
       </c>
       <c r="F58" s="3">
-        <v>11988900</v>
+        <v>12248500</v>
       </c>
       <c r="G58" s="3">
-        <v>6853800</v>
+        <v>7002200</v>
       </c>
       <c r="H58" s="3">
-        <v>4988400</v>
+        <v>5096500</v>
       </c>
       <c r="I58" s="3">
-        <v>3047700</v>
+        <v>3113700</v>
       </c>
       <c r="J58" s="3">
-        <v>5648400</v>
+        <v>5770700</v>
       </c>
       <c r="K58" s="3">
         <v>2912900</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3999000</v>
+        <v>4085600</v>
       </c>
       <c r="E59" s="3">
-        <v>4088400</v>
+        <v>4176900</v>
       </c>
       <c r="F59" s="3">
-        <v>4275200</v>
+        <v>4367800</v>
       </c>
       <c r="G59" s="3">
-        <v>4335500</v>
+        <v>4429400</v>
       </c>
       <c r="H59" s="3">
-        <v>2431900</v>
+        <v>2484600</v>
       </c>
       <c r="I59" s="3">
-        <v>2504300</v>
+        <v>2558500</v>
       </c>
       <c r="J59" s="3">
-        <v>5289800</v>
+        <v>5404300</v>
       </c>
       <c r="K59" s="3">
         <v>2574300</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10775500</v>
+        <v>11008800</v>
       </c>
       <c r="E60" s="3">
-        <v>11571100</v>
+        <v>11821600</v>
       </c>
       <c r="F60" s="3">
-        <v>12565500</v>
+        <v>12837600</v>
       </c>
       <c r="G60" s="3">
-        <v>14899000</v>
+        <v>15221600</v>
       </c>
       <c r="H60" s="3">
-        <v>6877900</v>
+        <v>7026900</v>
       </c>
       <c r="I60" s="3">
-        <v>7494700</v>
+        <v>7657000</v>
       </c>
       <c r="J60" s="3">
-        <v>8336500</v>
+        <v>8517000</v>
       </c>
       <c r="K60" s="3">
         <v>7968300</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13070800</v>
+        <v>13353800</v>
       </c>
       <c r="E61" s="3">
-        <v>14832700</v>
+        <v>15153900</v>
       </c>
       <c r="F61" s="3">
-        <v>14731300</v>
+        <v>15050200</v>
       </c>
       <c r="G61" s="3">
-        <v>14926200</v>
+        <v>15249300</v>
       </c>
       <c r="H61" s="3">
-        <v>9238600</v>
+        <v>9438600</v>
       </c>
       <c r="I61" s="3">
-        <v>8824700</v>
+        <v>9015800</v>
       </c>
       <c r="J61" s="3">
-        <v>9896500</v>
+        <v>10110800</v>
       </c>
       <c r="K61" s="3">
         <v>11932300</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5929700</v>
+        <v>6058100</v>
       </c>
       <c r="E62" s="3">
-        <v>6448000</v>
+        <v>6587600</v>
       </c>
       <c r="F62" s="3">
-        <v>9891500</v>
+        <v>10105700</v>
       </c>
       <c r="G62" s="3">
-        <v>7920600</v>
+        <v>8092100</v>
       </c>
       <c r="H62" s="3">
-        <v>4434000</v>
+        <v>4530000</v>
       </c>
       <c r="I62" s="3">
-        <v>3035700</v>
+        <v>3101400</v>
       </c>
       <c r="J62" s="3">
-        <v>7131100</v>
+        <v>7285500</v>
       </c>
       <c r="K62" s="3">
         <v>3809700</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2256,7 +2221,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2251,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2316,37 +2281,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32918100</v>
+        <v>33630900</v>
       </c>
       <c r="E66" s="3">
-        <v>36054200</v>
+        <v>36834900</v>
       </c>
       <c r="F66" s="3">
-        <v>38970400</v>
+        <v>39814100</v>
       </c>
       <c r="G66" s="3">
-        <v>42122500</v>
+        <v>43034600</v>
       </c>
       <c r="H66" s="3">
-        <v>22159700</v>
+        <v>22639500</v>
       </c>
       <c r="I66" s="3">
-        <v>21837300</v>
+        <v>22310100</v>
       </c>
       <c r="J66" s="3">
-        <v>24872900</v>
+        <v>25411500</v>
       </c>
       <c r="K66" s="3">
         <v>26637700</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2360,7 +2325,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2390,7 +2355,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2420,7 +2385,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2450,7 +2415,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2480,37 +2445,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17262700</v>
+        <v>17636400</v>
       </c>
       <c r="E72" s="3">
-        <v>15447500</v>
+        <v>15782000</v>
       </c>
       <c r="F72" s="3">
-        <v>16620800</v>
+        <v>16980700</v>
       </c>
       <c r="G72" s="3">
-        <v>15055700</v>
+        <v>15381700</v>
       </c>
       <c r="H72" s="3">
-        <v>27644400</v>
+        <v>28243000</v>
       </c>
       <c r="I72" s="3">
-        <v>17372200</v>
+        <v>17748300</v>
       </c>
       <c r="J72" s="3">
-        <v>15878400</v>
+        <v>16222200</v>
       </c>
       <c r="K72" s="3">
         <v>16345700</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2540,7 +2505,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2570,7 +2535,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2600,37 +2565,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27046700</v>
+        <v>27632300</v>
       </c>
       <c r="E76" s="3">
-        <v>27912600</v>
+        <v>28517000</v>
       </c>
       <c r="F76" s="3">
-        <v>30961300</v>
+        <v>31631700</v>
       </c>
       <c r="G76" s="3">
-        <v>31506800</v>
+        <v>32189000</v>
       </c>
       <c r="H76" s="3">
-        <v>17508800</v>
+        <v>17887900</v>
       </c>
       <c r="I76" s="3">
-        <v>16278200</v>
+        <v>16630700</v>
       </c>
       <c r="J76" s="3">
-        <v>16511300</v>
+        <v>16868800</v>
       </c>
       <c r="K76" s="3">
         <v>17427800</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2660,12 +2625,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2695,37 +2660,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1508800</v>
+        <v>1541500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1682600</v>
+        <v>-1719000</v>
       </c>
       <c r="F81" s="3">
-        <v>1799100</v>
+        <v>1838000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1475600</v>
+        <v>-1507600</v>
       </c>
       <c r="H81" s="3">
-        <v>1291800</v>
+        <v>1319800</v>
       </c>
       <c r="I81" s="3">
-        <v>1277700</v>
+        <v>1305400</v>
       </c>
       <c r="J81" s="3">
-        <v>612800</v>
+        <v>626000</v>
       </c>
       <c r="K81" s="3">
         <v>284800</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,37 +2704,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2253100</v>
+        <v>2301900</v>
       </c>
       <c r="E83" s="3">
-        <v>6225000</v>
+        <v>6359800</v>
       </c>
       <c r="F83" s="3">
-        <v>2359600</v>
+        <v>2410700</v>
       </c>
       <c r="G83" s="3">
-        <v>4441000</v>
+        <v>4537100</v>
       </c>
       <c r="H83" s="3">
-        <v>1408300</v>
+        <v>1438800</v>
       </c>
       <c r="I83" s="3">
-        <v>1545000</v>
+        <v>1578400</v>
       </c>
       <c r="J83" s="3">
-        <v>2149700</v>
+        <v>2196200</v>
       </c>
       <c r="K83" s="3">
         <v>2096900</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2799,7 +2764,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2829,7 +2794,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2859,7 +2824,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2889,7 +2854,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2919,37 +2884,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3001500</v>
+        <v>3066500</v>
       </c>
       <c r="E89" s="3">
-        <v>3053700</v>
+        <v>3119900</v>
       </c>
       <c r="F89" s="3">
-        <v>3309900</v>
+        <v>3381600</v>
       </c>
       <c r="G89" s="3">
-        <v>2476100</v>
+        <v>2529800</v>
       </c>
       <c r="H89" s="3">
-        <v>2495200</v>
+        <v>2549300</v>
       </c>
       <c r="I89" s="3">
-        <v>2799600</v>
+        <v>2860200</v>
       </c>
       <c r="J89" s="3">
-        <v>2654900</v>
+        <v>2712400</v>
       </c>
       <c r="K89" s="3">
         <v>2850800</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2963,37 +2928,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1417400</v>
+        <v>-1448100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1528900</v>
+        <v>-1562000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1781000</v>
+        <v>-1819600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2115500</v>
+        <v>-2161300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1953800</v>
+        <v>-1996100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2215000</v>
+        <v>-2262900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3466600</v>
+        <v>-3541700</v>
       </c>
       <c r="K91" s="3">
         <v>-1839100</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3023,7 +2988,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3053,37 +3018,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1392300</v>
+        <v>-1422400</v>
       </c>
       <c r="E94" s="3">
-        <v>-678100</v>
+        <v>-692700</v>
       </c>
       <c r="F94" s="3">
-        <v>709200</v>
+        <v>724500</v>
       </c>
       <c r="G94" s="3">
-        <v>5257700</v>
+        <v>5371500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1709700</v>
+        <v>-1746700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1672500</v>
+        <v>-1708700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1202400</v>
+        <v>-1228400</v>
       </c>
       <c r="K94" s="3">
         <v>-1854600</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3097,37 +3062,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1197400</v>
+        <v>-1223300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1217500</v>
+        <v>-1243800</v>
       </c>
       <c r="F96" s="3">
-        <v>-913100</v>
+        <v>-932900</v>
       </c>
       <c r="G96" s="3">
-        <v>-425900</v>
+        <v>-435100</v>
       </c>
       <c r="H96" s="3">
-        <v>-425900</v>
+        <v>-435100</v>
       </c>
       <c r="I96" s="3">
-        <v>-375700</v>
+        <v>-383800</v>
       </c>
       <c r="J96" s="3">
-        <v>-546500</v>
+        <v>-558300</v>
       </c>
       <c r="K96" s="3">
         <v>-497000</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3157,7 +3122,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3187,7 +3152,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3217,90 +3182,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3177300</v>
+        <v>-3246100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3096900</v>
+        <v>-3164000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2892000</v>
+        <v>-2954600</v>
       </c>
       <c r="G100" s="3">
-        <v>-6027100</v>
+        <v>-6157600</v>
       </c>
       <c r="H100" s="3">
-        <v>-987400</v>
+        <v>-1008800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1632300</v>
+        <v>-1667700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1132100</v>
+        <v>-1156600</v>
       </c>
       <c r="K100" s="3">
         <v>-1414500</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-129600</v>
+        <v>-132400</v>
       </c>
       <c r="E101" s="3">
-        <v>-122600</v>
+        <v>-125200</v>
       </c>
       <c r="F101" s="3">
-        <v>-99400</v>
+        <v>-101600</v>
       </c>
       <c r="G101" s="3">
-        <v>131600</v>
+        <v>134400</v>
       </c>
       <c r="H101" s="3">
-        <v>150700</v>
+        <v>153900</v>
       </c>
       <c r="I101" s="3">
-        <v>-216000</v>
+        <v>-220600</v>
       </c>
       <c r="J101" s="3">
-        <v>-78400</v>
+        <v>-80000</v>
       </c>
       <c r="K101" s="3">
         <v>-174000</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1697600</v>
+        <v>-1734400</v>
       </c>
       <c r="E102" s="3">
-        <v>-843800</v>
+        <v>-862100</v>
       </c>
       <c r="F102" s="3">
-        <v>1027600</v>
+        <v>1049900</v>
       </c>
       <c r="G102" s="3">
-        <v>1838300</v>
+        <v>1878100</v>
       </c>
       <c r="H102" s="3">
-        <v>-51200</v>
+        <v>-52300</v>
       </c>
       <c r="I102" s="3">
-        <v>-721200</v>
+        <v>-736900</v>
       </c>
       <c r="J102" s="3">
-        <v>242100</v>
+        <v>247300</v>
       </c>
       <c r="K102" s="3">
         <v>-592300</v>
